--- a/TemplatePrinting/printer/templates/excel/test.xlsx
+++ b/TemplatePrinting/printer/templates/excel/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafat\source\template-printing-api\printer\templates\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafat\source\vroot-printing-system\TemplatePrinting\printer\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -316,21 +316,6 @@
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -425,8 +410,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -696,368 +696,410 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="220" zoomScaleNormal="145" zoomScalePageLayoutView="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E6"/>
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="7.28515625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="11.5703125" style="6"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="40" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="J4" s="22"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="J5" s="22"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="25"/>
-      <c r="J6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="20"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="26"/>
-      <c r="J7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="21"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="26"/>
-      <c r="J8" s="22"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="21"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="J10" s="22"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="J11" s="22"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="22"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="22"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="22"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="22"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="J28" s="22"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="J29" s="22"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
     </row>
     <row r="63" spans="5:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E63" s="34"/>
+      <c r="E63" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="C3:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A26:C26"/>
@@ -1065,48 +1107,6 @@
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C3:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup scale="81" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1121,87 +1121,87 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="35" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="35" customWidth="1"/>
-    <col min="5" max="7" width="1.7109375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="35" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" style="35" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="35" customWidth="1"/>
-    <col min="14" max="14" width="51.85546875" style="35" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="17.7109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="30" customWidth="1"/>
+    <col min="5" max="7" width="1.7109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="30" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="30" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="30" customWidth="1"/>
+    <col min="14" max="14" width="51.85546875" style="30" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:14" s="31" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="H8" s="37" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="H8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="M8" s="37" t="s">
+      <c r="I8" s="32"/>
+      <c r="M8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="37"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="33" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I10" s="39"/>
-      <c r="M10" s="35" t="s">
+      <c r="I10" s="34"/>
+      <c r="M10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="30" t="s">
         <v>18</v>
       </c>
     </row>
